--- a/data/outputs/business_outcome_gender.xlsx
+++ b/data/outputs/business_outcome_gender.xlsx
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1140185.899770715</v>
+        <v>1140503.483629393</v>
       </c>
       <c r="E2" t="n">
-        <v>91214871.98165721</v>
+        <v>91240278.69035143</v>
       </c>
       <c r="F2" t="n">
-        <v>58377518.06826061</v>
+        <v>58393778.36182492</v>
       </c>
       <c r="G2" t="n">
-        <v>148942484.0870485</v>
+        <v>149018185.1710165</v>
       </c>
       <c r="H2" t="n">
-        <v>95330943.07982948</v>
+        <v>95368901.30108984</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>775314.5019093208</v>
+        <v>775331.5055076311</v>
       </c>
       <c r="E3" t="n">
-        <v>50395442.62410586</v>
+        <v>50396547.85799602</v>
       </c>
       <c r="F3" t="n">
-        <v>32253083.27942775</v>
+        <v>32253790.62911746</v>
       </c>
       <c r="G3" t="n">
-        <v>96953078.46376057</v>
+        <v>96885424.92823358</v>
       </c>
       <c r="H3" t="n">
-        <v>62048419.58780295</v>
+        <v>62003260.49544526</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1656874.834827906</v>
+        <v>1656341.037383267</v>
       </c>
       <c r="E4" t="n">
-        <v>82843741.74139529</v>
+        <v>82817051.86916335</v>
       </c>
       <c r="F4" t="n">
-        <v>60475931.47121857</v>
+        <v>60456447.86448924</v>
       </c>
       <c r="G4" t="n">
-        <v>144396641.855252</v>
+        <v>144383248.2286994</v>
       </c>
       <c r="H4" t="n">
-        <v>105410376.9917514</v>
+        <v>105392980.2086973</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>817640.421013775</v>
+        <v>817559.4841613013</v>
       </c>
       <c r="E5" t="n">
-        <v>49058425.26082651</v>
+        <v>49053569.04967808</v>
       </c>
       <c r="F5" t="n">
-        <v>35812650.44040334</v>
+        <v>35809105.40626499</v>
       </c>
       <c r="G5" t="n">
-        <v>214900431.8550505</v>
+        <v>215108075.87768</v>
       </c>
       <c r="H5" t="n">
-        <v>156872491.1757029</v>
+        <v>157028650.1228611</v>
       </c>
     </row>
     <row r="6">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2388594.029279021</v>
+        <v>2388425.568549484</v>
       </c>
       <c r="E6" t="n">
-        <v>95543761.17116085</v>
+        <v>95537022.74197936</v>
       </c>
       <c r="F6" t="n">
-        <v>100320949.2297189</v>
+        <v>100313873.8790783</v>
       </c>
       <c r="G6" t="n">
-        <v>191469697.3870063</v>
+        <v>191718920.3874671</v>
       </c>
       <c r="H6" t="n">
-        <v>201047959.4444152</v>
+        <v>201320391.173036</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2867174.765580385</v>
+        <v>2865320.712030692</v>
       </c>
       <c r="E7" t="n">
-        <v>129022864.4511173</v>
+        <v>128939432.0413811</v>
       </c>
       <c r="F7" t="n">
-        <v>135474007.6736732</v>
+        <v>135386403.6434502</v>
       </c>
       <c r="G7" t="n">
-        <v>181234116.9323362</v>
+        <v>181088269.0003397</v>
       </c>
       <c r="H7" t="n">
-        <v>190294389.1915702</v>
+        <v>190142682.4503567</v>
       </c>
     </row>
     <row r="8">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>117431.3025948122</v>
+        <v>117456.3387259953</v>
       </c>
       <c r="E8" t="n">
-        <v>5871565.12974061</v>
+        <v>5872816.936299765</v>
       </c>
       <c r="F8" t="n">
-        <v>6165143.38622764</v>
+        <v>6166457.783114754</v>
       </c>
       <c r="G8" t="n">
-        <v>9203091.184355432</v>
+        <v>9203878.702568991</v>
       </c>
       <c r="H8" t="n">
-        <v>9663421.890527096</v>
+        <v>9664307.550374893</v>
       </c>
     </row>
     <row r="9">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>154200.2655365783</v>
+        <v>154239.614888168</v>
       </c>
       <c r="E9" t="n">
-        <v>7710013.276828916</v>
+        <v>7711980.7444084</v>
       </c>
       <c r="F9" t="n">
-        <v>8095513.940670362</v>
+        <v>8097579.78162882</v>
       </c>
       <c r="G9" t="n">
-        <v>12945112.29179575</v>
+        <v>12945330.87756394</v>
       </c>
       <c r="H9" t="n">
-        <v>13591211.40439401</v>
+        <v>13593137.26009425</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>419499.3256203943</v>
+        <v>940556.7149505726</v>
       </c>
       <c r="E10" t="n">
-        <v>2936495279.34276</v>
+        <v>3291948502.327004</v>
       </c>
       <c r="F10" t="n">
-        <v>19674518.37159649</v>
+        <v>22056054.96559093</v>
       </c>
       <c r="G10" t="n">
-        <v>4213069482.144926</v>
+        <v>5239295936.094969</v>
       </c>
       <c r="H10" t="n">
-        <v>28228109.62099634</v>
+        <v>35101576.60195537</v>
       </c>
     </row>
     <row r="11">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>419789.1217644074</v>
+        <v>955514.1156033003</v>
       </c>
       <c r="E11" t="n">
-        <v>2098945608.822037</v>
+        <v>4777570578.016501</v>
       </c>
       <c r="F11" t="n">
-        <v>14062935.57910765</v>
+        <v>32009722.87271056</v>
       </c>
       <c r="G11" t="n">
-        <v>3020953644.30051</v>
+        <v>7344463698.173207</v>
       </c>
       <c r="H11" t="n">
-        <v>20242231.45147972</v>
+        <v>49208976.95356996</v>
       </c>
     </row>
     <row r="12">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3142176.244535631</v>
+        <v>2783207.700558751</v>
       </c>
       <c r="E12" t="n">
-        <v>1571088122.267816</v>
+        <v>1391603850.279376</v>
       </c>
       <c r="F12" t="n">
-        <v>424193793.0123102</v>
+        <v>375733039.5754313</v>
       </c>
       <c r="G12" t="n">
-        <v>2556820231.941089</v>
+        <v>2281729337.072075</v>
       </c>
       <c r="H12" t="n">
-        <v>690336120.9244781</v>
+        <v>616063024.5186795</v>
       </c>
     </row>
     <row r="13">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2910693.008553763</v>
+        <v>2655654.140821465</v>
       </c>
       <c r="E13" t="n">
-        <v>1164277203.421505</v>
+        <v>1062261656.328586</v>
       </c>
       <c r="F13" t="n">
-        <v>314354844.9238064</v>
+        <v>286810647.2087182</v>
       </c>
       <c r="G13" t="n">
-        <v>2299593011.4079</v>
+        <v>1902430956.860273</v>
       </c>
       <c r="H13" t="n">
-        <v>620879925.6546031</v>
+        <v>513656623.9176877</v>
       </c>
     </row>
     <row r="14">
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>164227.5832785153</v>
+        <v>164289.5722325652</v>
       </c>
       <c r="E14" t="n">
-        <v>11331703.24621755</v>
+        <v>11500270.05627956</v>
       </c>
       <c r="F14" t="n">
-        <v>6685704.915268358</v>
+        <v>6785159.333204943</v>
       </c>
       <c r="G14" t="n">
-        <v>33192036.85642073</v>
+        <v>33240709.14981492</v>
       </c>
       <c r="H14" t="n">
-        <v>19582497.03013016</v>
+        <v>19611246.23740131</v>
       </c>
     </row>
     <row r="15">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>142986.5069659286</v>
+        <v>143048.286455273</v>
       </c>
       <c r="E15" t="n">
-        <v>8579190.417955715</v>
+        <v>8582897.187316379</v>
       </c>
       <c r="F15" t="n">
-        <v>5061722.346593872</v>
+        <v>5063909.340516663</v>
       </c>
       <c r="G15" t="n">
-        <v>16745149.8307799</v>
+        <v>16759537.24109978</v>
       </c>
       <c r="H15" t="n">
-        <v>9878937.766276008</v>
+        <v>9887497.559788469</v>
       </c>
     </row>
     <row r="16">
@@ -1004,19 +1004,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1646187.112497163</v>
+        <v>1646062.249346629</v>
       </c>
       <c r="E18" t="n">
-        <v>77370794.28736666</v>
+        <v>77364925.71929157</v>
       </c>
       <c r="F18" t="n">
-        <v>81239334.001735</v>
+        <v>81233172.00525615</v>
       </c>
       <c r="G18" t="n">
-        <v>87577154.38484907</v>
+        <v>87570511.66524068</v>
       </c>
       <c r="H18" t="n">
-        <v>91956012.10409153</v>
+        <v>91932576.62600923</v>
       </c>
     </row>
     <row r="19">
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1192984.855379523</v>
+        <v>1193704.11445009</v>
       </c>
       <c r="E19" t="n">
-        <v>53684318.49207854</v>
+        <v>53716685.15025406</v>
       </c>
       <c r="F19" t="n">
-        <v>56368534.41668246</v>
+        <v>56402519.40776676</v>
       </c>
       <c r="G19" t="n">
-        <v>69718034.94837932</v>
+        <v>69736194.36617427</v>
       </c>
       <c r="H19" t="n">
-        <v>73201550.72608753</v>
+        <v>73221810.38036853</v>
       </c>
     </row>
     <row r="20">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9483468.704696141</v>
+        <v>9483206.563447326</v>
       </c>
       <c r="E20" t="n">
-        <v>474173435.2348071</v>
+        <v>474160328.1723663</v>
       </c>
       <c r="F20" t="n">
-        <v>474173435.2348071</v>
+        <v>474160328.1723663</v>
       </c>
       <c r="G20" t="n">
-        <v>1282070134.187871</v>
+        <v>1282319191.509347</v>
       </c>
       <c r="H20" t="n">
-        <v>1282070134.187871</v>
+        <v>1282319191.509347</v>
       </c>
     </row>
     <row r="21">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8843365.307361616</v>
+        <v>8839561.846107092</v>
       </c>
       <c r="E21" t="n">
-        <v>574818744.978505</v>
+        <v>574571519.996961</v>
       </c>
       <c r="F21" t="n">
-        <v>574818744.978505</v>
+        <v>574571519.996961</v>
       </c>
       <c r="G21" t="n">
-        <v>1049530594.677677</v>
+        <v>1048990804.277529</v>
       </c>
       <c r="H21" t="n">
-        <v>1049530594.677677</v>
+        <v>1048990804.277529</v>
       </c>
     </row>
     <row r="22">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1496094.746491302</v>
+        <v>1496445.509605119</v>
       </c>
       <c r="E22" t="n">
-        <v>119687579.7193042</v>
+        <v>119715640.7684095</v>
       </c>
       <c r="F22" t="n">
-        <v>76600051.02035467</v>
+        <v>76618010.09178209</v>
       </c>
       <c r="G22" t="n">
-        <v>195434856.7341588</v>
+        <v>195525570.2850049</v>
       </c>
       <c r="H22" t="n">
-        <v>125088481.7541378</v>
+        <v>125132773.5131801</v>
       </c>
     </row>
     <row r="23">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>927877.2896354462</v>
+        <v>927951.6303915064</v>
       </c>
       <c r="E23" t="n">
-        <v>60312023.826304</v>
+        <v>60316855.97544792</v>
       </c>
       <c r="F23" t="n">
-        <v>38599695.24883456</v>
+        <v>38602787.82428667</v>
       </c>
       <c r="G23" t="n">
-        <v>116031055.0689125</v>
+        <v>115956835.7337226</v>
       </c>
       <c r="H23" t="n">
-        <v>74258019.48952475</v>
+        <v>74208291.88240877</v>
       </c>
     </row>
     <row r="24">
@@ -1196,19 +1196,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2016216.443766803</v>
+        <v>2015170.900612232</v>
       </c>
       <c r="E24" t="n">
-        <v>100810822.1883402</v>
+        <v>100758545.0306116</v>
       </c>
       <c r="F24" t="n">
-        <v>73591900.19748831</v>
+        <v>73553737.87234648</v>
       </c>
       <c r="G24" t="n">
-        <v>175713263.0742769</v>
+        <v>175662447.4063683</v>
       </c>
       <c r="H24" t="n">
-        <v>128271690.152444</v>
+        <v>128225324.4059563</v>
       </c>
     </row>
     <row r="25">
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1023278.55453973</v>
+        <v>1022830.346025076</v>
       </c>
       <c r="E25" t="n">
-        <v>61396713.27238379</v>
+        <v>61369820.76150456</v>
       </c>
       <c r="F25" t="n">
-        <v>44819600.68884017</v>
+        <v>44799969.15589833</v>
       </c>
       <c r="G25" t="n">
-        <v>268948302.4896772</v>
+        <v>269116892.3426577</v>
       </c>
       <c r="H25" t="n">
-        <v>196326223.4739926</v>
+        <v>196455024.5610363</v>
       </c>
     </row>
     <row r="26">
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2870668.756279496</v>
+        <v>2870469.123077902</v>
       </c>
       <c r="E26" t="n">
-        <v>114826750.2511798</v>
+        <v>114818764.9231161</v>
       </c>
       <c r="F26" t="n">
-        <v>120568087.7637388</v>
+        <v>120559703.1692719</v>
       </c>
       <c r="G26" t="n">
-        <v>230112807.5033644</v>
+        <v>230412556.5094632</v>
       </c>
       <c r="H26" t="n">
-        <v>241624189.2160452</v>
+        <v>241951842.3842364</v>
       </c>
     </row>
     <row r="27">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4126686.848604117</v>
+        <v>4124807.13113982</v>
       </c>
       <c r="E27" t="n">
-        <v>185700908.1871853</v>
+        <v>185616320.9012919</v>
       </c>
       <c r="F27" t="n">
-        <v>194985953.5965445</v>
+        <v>194897136.9463565</v>
       </c>
       <c r="G27" t="n">
-        <v>260847875.7002662</v>
+        <v>260687810.6880366</v>
       </c>
       <c r="H27" t="n">
-        <v>273888206.1418552</v>
+        <v>273722201.2224385</v>
       </c>
     </row>
     <row r="28">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>168035.8728167512</v>
+        <v>168045.1462248244</v>
       </c>
       <c r="E28" t="n">
-        <v>8401793.640837559</v>
+        <v>8402257.311241219</v>
       </c>
       <c r="F28" t="n">
-        <v>8821883.322879437</v>
+        <v>8822370.17680328</v>
       </c>
       <c r="G28" t="n">
-        <v>13168971.35264879</v>
+        <v>13168017.65817724</v>
       </c>
       <c r="H28" t="n">
-        <v>13827671.97409046</v>
+        <v>13826754.63137855</v>
       </c>
     </row>
     <row r="29">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>219400.3137457673</v>
+        <v>219459.4096636503</v>
       </c>
       <c r="E29" t="n">
-        <v>10970015.68728836</v>
+        <v>10972970.48318251</v>
       </c>
       <c r="F29" t="n">
-        <v>11518516.47165278</v>
+        <v>11521619.00734164</v>
       </c>
       <c r="G29" t="n">
-        <v>18418656.33895716</v>
+        <v>18419228.25307017</v>
       </c>
       <c r="H29" t="n">
-        <v>19337943.65355193</v>
+        <v>19340957.7736575</v>
       </c>
     </row>
     <row r="30">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>698148.3484197127</v>
+        <v>1597951.522226847</v>
       </c>
       <c r="E30" t="n">
-        <v>4887038438.937989</v>
+        <v>5592830327.793964</v>
       </c>
       <c r="F30" t="n">
-        <v>32743157.54088453</v>
+        <v>37471963.19621956</v>
       </c>
       <c r="G30" t="n">
-        <v>7011566696.530533</v>
+        <v>8901261118.442873</v>
       </c>
       <c r="H30" t="n">
-        <v>46978402.36516248</v>
+        <v>59635550.80950593</v>
       </c>
     </row>
     <row r="31">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>777868.8355704736</v>
+        <v>1181961.015698238</v>
       </c>
       <c r="E31" t="n">
-        <v>3889344177.852368</v>
+        <v>5909805078.49119</v>
       </c>
       <c r="F31" t="n">
-        <v>26058605.99161087</v>
+        <v>39595694.02589098</v>
       </c>
       <c r="G31" t="n">
-        <v>5597824173.545933</v>
+        <v>9085025151.062937</v>
       </c>
       <c r="H31" t="n">
-        <v>37508835.25120824</v>
+        <v>60870992.30845926</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3592872.212839536</v>
+        <v>3113175.623820871</v>
       </c>
       <c r="E32" t="n">
-        <v>1796436106.419768</v>
+        <v>1556587811.910436</v>
       </c>
       <c r="F32" t="n">
-        <v>485037748.7333373</v>
+        <v>420278709.2158176</v>
       </c>
       <c r="G32" t="n">
-        <v>2923556048.309659</v>
+        <v>2552243639.920827</v>
       </c>
       <c r="H32" t="n">
-        <v>789354025.160846</v>
+        <v>689101424.3327498</v>
       </c>
     </row>
     <row r="33">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3242658.979458062</v>
+        <v>3118148.075492981</v>
       </c>
       <c r="E33" t="n">
-        <v>1297063591.783225</v>
+        <v>1247259230.197192</v>
       </c>
       <c r="F33" t="n">
-        <v>350207169.7814707</v>
+        <v>336759992.1532419</v>
       </c>
       <c r="G33" t="n">
-        <v>2561862726.720842</v>
+        <v>2233747736.840907</v>
       </c>
       <c r="H33" t="n">
-        <v>691691586.9081992</v>
+        <v>603112200.7618524</v>
       </c>
     </row>
     <row r="34">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>212409.3012850125</v>
+        <v>212504.5259758889</v>
       </c>
       <c r="E34" t="n">
-        <v>14656241.78866586</v>
+        <v>14875316.81831222</v>
       </c>
       <c r="F34" t="n">
-        <v>8647182.655312859</v>
+        <v>8776436.92280421</v>
       </c>
       <c r="G34" t="n">
-        <v>42930043.88271388</v>
+        <v>42996040.7407016</v>
       </c>
       <c r="H34" t="n">
-        <v>25327685.08522489</v>
+        <v>25366665.26574186</v>
       </c>
     </row>
     <row r="35">
@@ -1548,19 +1548,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>209226.7120997154</v>
+        <v>209300.4322561037</v>
       </c>
       <c r="E35" t="n">
-        <v>12553602.72598292</v>
+        <v>12558025.93536622</v>
       </c>
       <c r="F35" t="n">
-        <v>7406625.608329925</v>
+        <v>7409235.30186607</v>
       </c>
       <c r="G35" t="n">
-        <v>24502540.25399767</v>
+        <v>24521638.64312511</v>
       </c>
       <c r="H35" t="n">
-        <v>14455473.53896934</v>
+        <v>14466845.87754189</v>
       </c>
     </row>
     <row r="36">
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2129418.682912741</v>
+        <v>2129393.034552016</v>
       </c>
       <c r="E38" t="n">
-        <v>100082678.0968988</v>
+        <v>100081472.6239447</v>
       </c>
       <c r="F38" t="n">
-        <v>105086812.0017438</v>
+        <v>105085546.255142</v>
       </c>
       <c r="G38" t="n">
-        <v>113285073.9309578</v>
+        <v>113283709.4381672</v>
       </c>
       <c r="H38" t="n">
-        <v>118949327.6275057</v>
+        <v>118926600.9797301</v>
       </c>
     </row>
     <row r="39">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1438225.220097219</v>
+        <v>1438993.383900085</v>
       </c>
       <c r="E39" t="n">
-        <v>64720134.90437486</v>
+        <v>64754702.27550382</v>
       </c>
       <c r="F39" t="n">
-        <v>67956141.64959361</v>
+        <v>67992437.38927902</v>
       </c>
       <c r="G39" t="n">
-        <v>84049881.86248147</v>
+        <v>84065993.48744297</v>
       </c>
       <c r="H39" t="n">
-        <v>88249499.50516537</v>
+        <v>88267854.16843122</v>
       </c>
     </row>
     <row r="40">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12156431.79617597</v>
+        <v>12154949.03221546</v>
       </c>
       <c r="E40" t="n">
-        <v>607821589.8087984</v>
+        <v>607747451.610773</v>
       </c>
       <c r="F40" t="n">
-        <v>607821589.8087984</v>
+        <v>607747451.610773</v>
       </c>
       <c r="G40" t="n">
-        <v>1643428014.525029</v>
+        <v>1643592208.136174</v>
       </c>
       <c r="H40" t="n">
-        <v>1643428014.525029</v>
+        <v>1643592208.136174</v>
       </c>
     </row>
     <row r="41">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11300700.07644005</v>
+        <v>11295335.78003827</v>
       </c>
       <c r="E41" t="n">
-        <v>734545504.9686033</v>
+        <v>734196825.7024875</v>
       </c>
       <c r="F41" t="n">
-        <v>734545504.9686033</v>
+        <v>734196825.7024875</v>
       </c>
       <c r="G41" t="n">
-        <v>1341167085.071905</v>
+        <v>1340417497.017141</v>
       </c>
       <c r="H41" t="n">
-        <v>1341167085.071905</v>
+        <v>1340417497.017141</v>
       </c>
     </row>
     <row r="42">
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2277985.270802957</v>
+        <v>2278525.299747002</v>
       </c>
       <c r="E42" t="n">
-        <v>182238821.6642365</v>
+        <v>182282023.9797601</v>
       </c>
       <c r="F42" t="n">
-        <v>116632845.8651114</v>
+        <v>116660495.3470465</v>
       </c>
       <c r="G42" t="n">
-        <v>297573215.9249902</v>
+        <v>297712115.6649433</v>
       </c>
       <c r="H42" t="n">
-        <v>190462348.4918352</v>
+        <v>190530285.5648443</v>
       </c>
     </row>
     <row r="43">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1437455.354351646</v>
+        <v>1437571.675735457</v>
       </c>
       <c r="E43" t="n">
-        <v>93434598.03285699</v>
+        <v>93442158.92280471</v>
       </c>
       <c r="F43" t="n">
-        <v>59798142.74102848</v>
+        <v>59802981.71059502</v>
       </c>
       <c r="G43" t="n">
-        <v>179753792.0616733</v>
+        <v>179638956.5999027</v>
       </c>
       <c r="H43" t="n">
-        <v>115039552.0087622</v>
+        <v>114962606.9085645</v>
       </c>
     </row>
     <row r="44">
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2725995.679685928</v>
+        <v>2724905.550336269</v>
       </c>
       <c r="E44" t="n">
-        <v>136299783.9842964</v>
+        <v>136245277.5168135</v>
       </c>
       <c r="F44" t="n">
-        <v>99498842.30853637</v>
+        <v>99459052.58727382</v>
       </c>
       <c r="G44" t="n">
-        <v>237570523.4846286</v>
+        <v>237530016.8228126</v>
       </c>
       <c r="H44" t="n">
-        <v>173427845.1416187</v>
+        <v>173385740.1678968</v>
       </c>
     </row>
     <row r="45">
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1639194.974133256</v>
+        <v>1638642.931616401</v>
       </c>
       <c r="E45" t="n">
-        <v>98351698.44799535</v>
+        <v>98318575.89698407</v>
       </c>
       <c r="F45" t="n">
-        <v>71796739.8670366</v>
+        <v>71772560.40479836</v>
       </c>
       <c r="G45" t="n">
-        <v>430829615.0514436</v>
+        <v>431143341.7375913</v>
       </c>
       <c r="H45" t="n">
-        <v>314495947.7372065</v>
+        <v>314734147.8755621</v>
       </c>
     </row>
     <row r="46">
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5103833.952161656</v>
+        <v>5104170.042569892</v>
       </c>
       <c r="E46" t="n">
-        <v>204153358.0864662</v>
+        <v>204166801.7027957</v>
       </c>
       <c r="F46" t="n">
-        <v>214361025.9907895</v>
+        <v>214375141.7879354</v>
       </c>
       <c r="G46" t="n">
-        <v>409123329.6052783</v>
+        <v>409711729.3170851</v>
       </c>
       <c r="H46" t="n">
-        <v>429589703.7534466</v>
+        <v>430230492.8882162</v>
       </c>
     </row>
     <row r="47">
@@ -1932,19 +1932,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7093878.232276264</v>
+        <v>7093378.718759879</v>
       </c>
       <c r="E47" t="n">
-        <v>319224520.4524319</v>
+        <v>319202042.3441945</v>
       </c>
       <c r="F47" t="n">
-        <v>335185746.4750534</v>
+        <v>335162144.4614043</v>
       </c>
       <c r="G47" t="n">
-        <v>448404043.0621826</v>
+        <v>448301535.0256243</v>
       </c>
       <c r="H47" t="n">
-        <v>470820698.2761757</v>
+        <v>470716611.7769055</v>
       </c>
     </row>
     <row r="48">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>314268.1145435064</v>
+        <v>314256.6027775176</v>
       </c>
       <c r="E48" t="n">
-        <v>15713405.72717532</v>
+        <v>15712830.13887588</v>
       </c>
       <c r="F48" t="n">
-        <v>16499076.01353409</v>
+        <v>16498471.64581967</v>
       </c>
       <c r="G48" t="n">
-        <v>24629192.1367746</v>
+        <v>24625147.39364628</v>
       </c>
       <c r="H48" t="n">
-        <v>25861123.14578515</v>
+        <v>25857033.27653415</v>
       </c>
     </row>
     <row r="49">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>336693.3198277019</v>
+        <v>336795.6144784018</v>
       </c>
       <c r="E49" t="n">
-        <v>16834665.99138509</v>
+        <v>16839780.72392009</v>
       </c>
       <c r="F49" t="n">
-        <v>17676399.29095435</v>
+        <v>17681769.76011609</v>
       </c>
       <c r="G49" t="n">
-        <v>28265404.19953557</v>
+        <v>28267255.92317227</v>
       </c>
       <c r="H49" t="n">
-        <v>29676149.20961364</v>
+        <v>29681797.50398155</v>
       </c>
     </row>
     <row r="50">
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1730740.274876655</v>
+        <v>2753558.226519251</v>
       </c>
       <c r="E50" t="n">
-        <v>12115181924.13659</v>
+        <v>9637453792.817377</v>
       </c>
       <c r="F50" t="n">
-        <v>81171718.89171512</v>
+        <v>64570940.41187643</v>
       </c>
       <c r="G50" t="n">
-        <v>17381980347.21099</v>
+        <v>15338475816.16737</v>
       </c>
       <c r="H50" t="n">
-        <v>116461513.0964501</v>
+        <v>102762793.0136984</v>
       </c>
     </row>
     <row r="51">
@@ -2060,19 +2060,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1657185.046749528</v>
+        <v>2559002.97573502</v>
       </c>
       <c r="E51" t="n">
-        <v>8285925233.747641</v>
+        <v>12795014878.6751</v>
       </c>
       <c r="F51" t="n">
-        <v>55515699.06610919</v>
+        <v>85726599.68712316</v>
       </c>
       <c r="G51" t="n">
-        <v>11925700183.02643</v>
+        <v>19669520472.68966</v>
       </c>
       <c r="H51" t="n">
-        <v>79909462.95426224</v>
+        <v>131788653.2503535</v>
       </c>
     </row>
     <row r="52">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4257724.673700322</v>
+        <v>3756022.338769516</v>
       </c>
       <c r="E52" t="n">
-        <v>2128862336.850161</v>
+        <v>1878011169.384758</v>
       </c>
       <c r="F52" t="n">
-        <v>574792830.9495435</v>
+        <v>507063015.7338846</v>
       </c>
       <c r="G52" t="n">
-        <v>3464553144.23669</v>
+        <v>3079262233.770025</v>
       </c>
       <c r="H52" t="n">
-        <v>935422110.8119608</v>
+        <v>831395544.6866324</v>
       </c>
     </row>
     <row r="53">
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4096065.01060344</v>
+        <v>3744571.278116439</v>
       </c>
       <c r="E53" t="n">
-        <v>1638426004.241376</v>
+        <v>1497828511.246576</v>
       </c>
       <c r="F53" t="n">
-        <v>442375021.1451715</v>
+        <v>404413698.0365754</v>
       </c>
       <c r="G53" t="n">
-        <v>3236096161.627248</v>
+        <v>2682498526.504273</v>
       </c>
       <c r="H53" t="n">
-        <v>873731627.4118198</v>
+        <v>724274976.6132816</v>
       </c>
     </row>
     <row r="54">
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>295248.7795875054</v>
+        <v>295268.547547688</v>
       </c>
       <c r="E54" t="n">
-        <v>20372165.79153787</v>
+        <v>20668798.32833816</v>
       </c>
       <c r="F54" t="n">
-        <v>12019577.81700734</v>
+        <v>12194591.01371951</v>
       </c>
       <c r="G54" t="n">
-        <v>59672730.84243072</v>
+        <v>59741685.22532372</v>
       </c>
       <c r="H54" t="n">
-        <v>35205464.47801414</v>
+        <v>35246206.52076752</v>
       </c>
     </row>
     <row r="55">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>337646.4463303245</v>
+        <v>337621.2765069396</v>
       </c>
       <c r="E55" t="n">
-        <v>20258786.77981947</v>
+        <v>20257276.59041638</v>
       </c>
       <c r="F55" t="n">
-        <v>11952684.20009349</v>
+        <v>11951793.18834566</v>
       </c>
       <c r="G55" t="n">
-        <v>39541775.3297443</v>
+        <v>39555708.75555304</v>
       </c>
       <c r="H55" t="n">
-        <v>23327992.97696212</v>
+        <v>23336382.63215967</v>
       </c>
     </row>
     <row r="56">
@@ -2284,19 +2284,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2884930.619273025</v>
+        <v>2885186.983403609</v>
       </c>
       <c r="E58" t="n">
-        <v>135591739.1058322</v>
+        <v>135603788.2199696</v>
       </c>
       <c r="F58" t="n">
-        <v>142371326.0611238</v>
+        <v>142383977.6309681</v>
       </c>
       <c r="G58" t="n">
-        <v>153478308.9453249</v>
+        <v>153491947.517072</v>
       </c>
       <c r="H58" t="n">
-        <v>161152224.3925912</v>
+        <v>161137693.0230916</v>
       </c>
     </row>
     <row r="59">
@@ -2316,19 +2316,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2158141.188406803</v>
+        <v>2158767.55239928</v>
       </c>
       <c r="E59" t="n">
-        <v>97116353.47830614</v>
+        <v>97144539.8579676</v>
       </c>
       <c r="F59" t="n">
-        <v>101972171.1522215</v>
+        <v>102001766.850866</v>
       </c>
       <c r="G59" t="n">
-        <v>126121771.0504936</v>
+        <v>126115200.4111659</v>
       </c>
       <c r="H59" t="n">
-        <v>132423543.3206414</v>
+        <v>132418801.6641718</v>
       </c>
     </row>
     <row r="60">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16472545.55255596</v>
+        <v>16468094.18607252</v>
       </c>
       <c r="E60" t="n">
-        <v>823627277.627798</v>
+        <v>823404709.3036261</v>
       </c>
       <c r="F60" t="n">
-        <v>823627277.627798</v>
+        <v>823404709.3036261</v>
       </c>
       <c r="G60" t="n">
-        <v>2226923433.25004</v>
+        <v>2226815695.840726</v>
       </c>
       <c r="H60" t="n">
-        <v>2226923433.25004</v>
+        <v>2226815695.840726</v>
       </c>
     </row>
     <row r="61">
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14859779.82377169</v>
+        <v>14857075.20810382</v>
       </c>
       <c r="E61" t="n">
-        <v>965885688.5451598</v>
+        <v>965709888.5267483</v>
       </c>
       <c r="F61" t="n">
-        <v>965885688.5451598</v>
+        <v>965709888.5267483</v>
       </c>
       <c r="G61" t="n">
-        <v>1763558669.485224</v>
+        <v>1763089114.94568</v>
       </c>
       <c r="H61" t="n">
-        <v>1763558669.485224</v>
+        <v>1763089114.94568</v>
       </c>
     </row>
     <row r="62">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3196717.987545147</v>
+        <v>3197274.065002075</v>
       </c>
       <c r="E62" t="n">
-        <v>255737439.0036118</v>
+        <v>255781925.200166</v>
       </c>
       <c r="F62" t="n">
-        <v>163671960.9623115</v>
+        <v>163700432.1281062</v>
       </c>
       <c r="G62" t="n">
-        <v>417587270.7130225</v>
+        <v>417755829.3331711</v>
       </c>
       <c r="H62" t="n">
-        <v>267277590.9386497</v>
+        <v>267356057.3154735</v>
       </c>
     </row>
     <row r="63">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1995248.032727501</v>
+        <v>1995406.2088476</v>
       </c>
       <c r="E63" t="n">
-        <v>129691122.1272876</v>
+        <v>129701403.575094</v>
       </c>
       <c r="F63" t="n">
-        <v>83002318.16146404</v>
+        <v>83008898.28806016</v>
       </c>
       <c r="G63" t="n">
-        <v>249505766.492574</v>
+        <v>249345959.8575961</v>
       </c>
       <c r="H63" t="n">
-        <v>159679700.0591819</v>
+        <v>159572634.5215426</v>
       </c>
     </row>
     <row r="64">
@@ -2476,19 +2476,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3991215.579460654</v>
+        <v>3990496.276534622</v>
       </c>
       <c r="E64" t="n">
-        <v>199560778.9730327</v>
+        <v>199524813.8267311</v>
       </c>
       <c r="F64" t="n">
-        <v>145679368.6503139</v>
+        <v>145653114.0935137</v>
       </c>
       <c r="G64" t="n">
-        <v>347834437.749996</v>
+        <v>347851560.425523</v>
       </c>
       <c r="H64" t="n">
-        <v>253921135.1652868</v>
+        <v>253915278.075898</v>
       </c>
     </row>
     <row r="65">
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2254417.178546132</v>
+        <v>2253574.526384277</v>
       </c>
       <c r="E65" t="n">
-        <v>135265030.7127679</v>
+        <v>135214471.5830566</v>
       </c>
       <c r="F65" t="n">
-        <v>98743472.42032057</v>
+        <v>98706564.25563131</v>
       </c>
       <c r="G65" t="n">
-        <v>592528467.0372798</v>
+        <v>592937993.6369671</v>
       </c>
       <c r="H65" t="n">
-        <v>432532479.8758609</v>
+        <v>432844059.2826281</v>
       </c>
     </row>
     <row r="66">
@@ -2540,19 +2540,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6379042.004990594</v>
+        <v>6378578.13790542</v>
       </c>
       <c r="E66" t="n">
-        <v>255161680.1996238</v>
+        <v>255143125.5162168</v>
       </c>
       <c r="F66" t="n">
-        <v>267919764.209605</v>
+        <v>267900281.7920276</v>
       </c>
       <c r="G66" t="n">
-        <v>511344007.120046</v>
+        <v>512008467.129668</v>
       </c>
       <c r="H66" t="n">
-        <v>536923965.5600584</v>
+        <v>537650351.2440479</v>
       </c>
     </row>
     <row r="67">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9188523.602138758</v>
+        <v>9187149.638939217</v>
       </c>
       <c r="E67" t="n">
-        <v>413483562.0962441</v>
+        <v>413421733.7522647</v>
       </c>
       <c r="F67" t="n">
-        <v>434157740.2010563</v>
+        <v>434092820.439878</v>
       </c>
       <c r="G67" t="n">
-        <v>580806576.8911909</v>
+        <v>580627857.1809585</v>
       </c>
       <c r="H67" t="n">
-        <v>609842311.4739494</v>
+        <v>609659250.0400064</v>
       </c>
     </row>
     <row r="68">
@@ -2604,19 +2604,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>432003.5232568748</v>
+        <v>432009.9985058548</v>
       </c>
       <c r="E68" t="n">
-        <v>21600176.16284374</v>
+        <v>21600499.92529274</v>
       </c>
       <c r="F68" t="n">
-        <v>22680184.97098593</v>
+        <v>22680524.92155738</v>
       </c>
       <c r="G68" t="n">
-        <v>33856116.11764129</v>
+        <v>33852303.48291878</v>
       </c>
       <c r="H68" t="n">
-        <v>35549569.92880823</v>
+        <v>35545782.67706174</v>
       </c>
     </row>
     <row r="69">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>384744.5310014216</v>
+        <v>384841.3585111832</v>
       </c>
       <c r="E69" t="n">
-        <v>19237226.55007108</v>
+        <v>19242067.92555916</v>
       </c>
       <c r="F69" t="n">
-        <v>20199087.87757463</v>
+        <v>20204171.32183712</v>
       </c>
       <c r="G69" t="n">
-        <v>32299303.37756935</v>
+        <v>32299735.21984361</v>
       </c>
       <c r="H69" t="n">
-        <v>33911382.9624653</v>
+        <v>33916068.92559057</v>
       </c>
     </row>
     <row r="70">
@@ -2668,19 +2668,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3316206.019654053</v>
+        <v>4190030.931126432</v>
       </c>
       <c r="E70" t="n">
-        <v>23213442137.57837</v>
+        <v>14665108258.94251</v>
       </c>
       <c r="F70" t="n">
-        <v>155530062.3217751</v>
+        <v>98256225.33491483</v>
       </c>
       <c r="G70" t="n">
-        <v>33304955513.92742</v>
+        <v>23340232099.3653</v>
       </c>
       <c r="H70" t="n">
-        <v>223147503.0625212</v>
+        <v>156371954.3496384</v>
       </c>
     </row>
     <row r="71">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3217701.473879379</v>
+        <v>3734078.781633074</v>
       </c>
       <c r="E71" t="n">
-        <v>16088507369.3969</v>
+        <v>18670393908.16537</v>
       </c>
       <c r="F71" t="n">
-        <v>107792999.3749592</v>
+        <v>125091639.184708</v>
       </c>
       <c r="G71" t="n">
-        <v>23155738178.56661</v>
+        <v>28701623147.14446</v>
       </c>
       <c r="H71" t="n">
-        <v>155157565.0704637</v>
+        <v>192305057.2541033</v>
       </c>
     </row>
     <row r="72">
@@ -2732,19 +2732,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4700489.143536726</v>
+        <v>4125020.994642563</v>
       </c>
       <c r="E72" t="n">
-        <v>2350244571.768363</v>
+        <v>2062510497.321282</v>
       </c>
       <c r="F72" t="n">
-        <v>634566034.377458</v>
+        <v>556877834.276746</v>
       </c>
       <c r="G72" t="n">
-        <v>3824835020.987269</v>
+        <v>3381774711.827867</v>
       </c>
       <c r="H72" t="n">
-        <v>1032697464.835019</v>
+        <v>913073397.1641313</v>
       </c>
     </row>
     <row r="73">
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4650418.804056093</v>
+        <v>4654621.214166808</v>
       </c>
       <c r="E73" t="n">
-        <v>1860167521.622437</v>
+        <v>1861848485.666723</v>
       </c>
       <c r="F73" t="n">
-        <v>502245230.8380581</v>
+        <v>502699091.1300153</v>
       </c>
       <c r="G73" t="n">
-        <v>3674063376.144516</v>
+        <v>3334430999.192676</v>
       </c>
       <c r="H73" t="n">
-        <v>991980835.0932052</v>
+        <v>900296835.244144</v>
       </c>
     </row>
     <row r="74">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>423187.2642289641</v>
+        <v>423044.5808515184</v>
       </c>
       <c r="E74" t="n">
-        <v>29199921.23179852</v>
+        <v>29613120.65960629</v>
       </c>
       <c r="F74" t="n">
-        <v>17227953.52676113</v>
+        <v>17471741.18916771</v>
       </c>
       <c r="G74" t="n">
-        <v>85530377.97331594</v>
+        <v>85594610.04368772</v>
       </c>
       <c r="H74" t="n">
-        <v>50460849.38666168</v>
+        <v>50498831.61624575</v>
       </c>
     </row>
     <row r="75">
@@ -2828,19 +2828,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>497730.3642310122</v>
+        <v>497702.1700334313</v>
       </c>
       <c r="E75" t="n">
-        <v>29863821.85386073</v>
+        <v>29862130.20200588</v>
       </c>
       <c r="F75" t="n">
-        <v>17619654.89377783</v>
+        <v>17618656.81918347</v>
       </c>
       <c r="G75" t="n">
-        <v>58289202.95509384</v>
+        <v>58310786.24111681</v>
       </c>
       <c r="H75" t="n">
-        <v>34388190.86472064</v>
+        <v>34401173.99271078</v>
       </c>
     </row>
     <row r="76">
@@ -2924,19 +2924,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3757927.915153033</v>
+        <v>3758252.925297764</v>
       </c>
       <c r="E78" t="n">
-        <v>176622612.0121925</v>
+        <v>176637887.4889949</v>
       </c>
       <c r="F78" t="n">
-        <v>185453742.6128022</v>
+        <v>185469781.8634447</v>
       </c>
       <c r="G78" t="n">
-        <v>199921765.0861414</v>
+        <v>199939055.6258411</v>
       </c>
       <c r="H78" t="n">
-        <v>209917853.3404484</v>
+        <v>209898425.8778801</v>
       </c>
     </row>
     <row r="79">
@@ -2956,19 +2956,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2631327.96091564</v>
+        <v>2631772.57651967</v>
       </c>
       <c r="E79" t="n">
-        <v>118409758.2412038</v>
+        <v>118429765.9433852</v>
       </c>
       <c r="F79" t="n">
-        <v>124330246.153264</v>
+        <v>124351254.2405544</v>
       </c>
       <c r="G79" t="n">
-        <v>153774806.03591</v>
+        <v>153748153.9202791</v>
       </c>
       <c r="H79" t="n">
-        <v>161458283.6817837</v>
+        <v>161432929.8437166</v>
       </c>
     </row>
     <row r="80">
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>25420736.59230979</v>
+        <v>25412667.67448756</v>
       </c>
       <c r="E80" t="n">
-        <v>1271036829.615489</v>
+        <v>1270633383.724378</v>
       </c>
       <c r="F80" t="n">
-        <v>1271036829.615489</v>
+        <v>1270633383.724378</v>
       </c>
       <c r="G80" t="n">
-        <v>3436629379.914361</v>
+        <v>3436300922.944208</v>
       </c>
       <c r="H80" t="n">
-        <v>3436629379.914361</v>
+        <v>3436300922.944208</v>
       </c>
     </row>
     <row r="81">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19206262.59338115</v>
+        <v>19205437.69518928</v>
       </c>
       <c r="E81" t="n">
-        <v>1248407068.569775</v>
+        <v>1248353450.187303</v>
       </c>
       <c r="F81" t="n">
-        <v>1248407068.569775</v>
+        <v>1248353450.187303</v>
       </c>
       <c r="G81" t="n">
-        <v>2279399244.582475</v>
+        <v>2279109291.288112</v>
       </c>
       <c r="H81" t="n">
-        <v>2279399244.582475</v>
+        <v>2279109291.288112</v>
       </c>
     </row>
     <row r="82">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4037777.634244104</v>
+        <v>4038204.82756624</v>
       </c>
       <c r="E82" t="n">
-        <v>323022210.7395283</v>
+        <v>323056386.2052992</v>
       </c>
       <c r="F82" t="n">
-        <v>206734214.8732981</v>
+        <v>206756087.1713915</v>
       </c>
       <c r="G82" t="n">
-        <v>527454892.3613073</v>
+        <v>527631842.7698049</v>
       </c>
       <c r="H82" t="n">
-        <v>337598587.9991495</v>
+        <v>337674687.681089</v>
       </c>
     </row>
     <row r="83">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2340983.388654166</v>
+        <v>2341593.321389073</v>
       </c>
       <c r="E83" t="n">
-        <v>152163920.2625208</v>
+        <v>152203565.8902898</v>
       </c>
       <c r="F83" t="n">
-        <v>97384908.9680133</v>
+        <v>97410282.16978544</v>
       </c>
       <c r="G83" t="n">
-        <v>292739972.7512034</v>
+        <v>292605501.4407786</v>
       </c>
       <c r="H83" t="n">
-        <v>187348900.5939929</v>
+        <v>187257217.9114842</v>
       </c>
     </row>
     <row r="84">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4660061.690830356</v>
+        <v>4659504.837487273</v>
       </c>
       <c r="E84" t="n">
-        <v>233003084.5415178</v>
+        <v>232975241.8743637</v>
       </c>
       <c r="F84" t="n">
-        <v>170092251.715308</v>
+        <v>170071926.5682855</v>
       </c>
       <c r="G84" t="n">
-        <v>406124376.3558656</v>
+        <v>406169036.6837656</v>
       </c>
       <c r="H84" t="n">
-        <v>296473124.7706273</v>
+        <v>296484292.8093152</v>
       </c>
     </row>
     <row r="85">
@@ -3148,19 +3148,19 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2811271.166098108</v>
+        <v>2809920.231392748</v>
       </c>
       <c r="E85" t="n">
-        <v>168676269.9658865</v>
+        <v>168595213.8835649</v>
       </c>
       <c r="F85" t="n">
-        <v>123133677.0750971</v>
+        <v>123074506.1350024</v>
       </c>
       <c r="G85" t="n">
-        <v>738886400.5855657</v>
+        <v>739318112.081746</v>
       </c>
       <c r="H85" t="n">
-        <v>539370485.9275831</v>
+        <v>539701378.8436052</v>
       </c>
     </row>
     <row r="86">
@@ -3180,19 +3180,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7968363.691791833</v>
+        <v>7967665.660338162</v>
       </c>
       <c r="E86" t="n">
-        <v>318734547.6716734</v>
+        <v>318706626.4135265</v>
       </c>
       <c r="F86" t="n">
-        <v>334671275.055257</v>
+        <v>334641957.7342028</v>
       </c>
       <c r="G86" t="n">
-        <v>638744033.5340333</v>
+        <v>639564522.5553442</v>
       </c>
       <c r="H86" t="n">
-        <v>670697171.9381186</v>
+        <v>671594538.5099038</v>
       </c>
     </row>
     <row r="87">
@@ -3212,19 +3212,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10452383.94565168</v>
+        <v>10450992.63507743</v>
       </c>
       <c r="E87" t="n">
-        <v>470357277.5543256</v>
+        <v>470294668.5784844</v>
       </c>
       <c r="F87" t="n">
-        <v>493875141.4320419</v>
+        <v>493809402.0074086</v>
       </c>
       <c r="G87" t="n">
-        <v>660695189.2046428</v>
+        <v>660502734.5368936</v>
       </c>
       <c r="H87" t="n">
-        <v>693724722.4729021</v>
+        <v>693527871.2637383</v>
       </c>
     </row>
     <row r="88">
@@ -3244,19 +3244,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>519616.4091493857</v>
+        <v>519612.1084964871</v>
       </c>
       <c r="E88" t="n">
-        <v>25980820.45746928</v>
+        <v>25980605.42482435</v>
       </c>
       <c r="F88" t="n">
-        <v>27279861.48034275</v>
+        <v>27279635.69606557</v>
       </c>
       <c r="G88" t="n">
-        <v>40722337.98503736</v>
+        <v>40716804.82178473</v>
       </c>
       <c r="H88" t="n">
-        <v>42759234.30890295</v>
+        <v>42753684.28709096</v>
       </c>
     </row>
     <row r="89">
@@ -3276,19 +3276,19 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>434487.1798025735</v>
+        <v>434580.7373057879</v>
       </c>
       <c r="E89" t="n">
-        <v>21724358.99012868</v>
+        <v>21729036.8652894</v>
       </c>
       <c r="F89" t="n">
-        <v>22810576.93963511</v>
+        <v>22815488.70855387</v>
       </c>
       <c r="G89" t="n">
-        <v>36475198.74442605</v>
+        <v>36474361.28207478</v>
       </c>
       <c r="H89" t="n">
-        <v>38295700.02779883</v>
+        <v>38299600.37875909</v>
       </c>
     </row>
     <row r="90">
@@ -3308,19 +3308,19 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6578295.059359576</v>
+        <v>7576494.286420397</v>
       </c>
       <c r="E90" t="n">
-        <v>46048065415.51703</v>
+        <v>26517730002.47139</v>
       </c>
       <c r="F90" t="n">
-        <v>308522038.2839641</v>
+        <v>177668791.0165583</v>
       </c>
       <c r="G90" t="n">
-        <v>66066409327.70356</v>
+        <v>42204255302.96191</v>
       </c>
       <c r="H90" t="n">
-        <v>442653474.5443059</v>
+        <v>282754766.7692092</v>
       </c>
     </row>
     <row r="91">
@@ -3340,19 +3340,19 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7385489.463858804</v>
+        <v>8264546.830154087</v>
       </c>
       <c r="E91" t="n">
-        <v>36927447319.29402</v>
+        <v>41322734150.77044</v>
       </c>
       <c r="F91" t="n">
-        <v>247413897.0392699</v>
+        <v>276862318.8101619</v>
       </c>
       <c r="G91" t="n">
-        <v>53148640958.13494</v>
+        <v>63524612755.29637</v>
       </c>
       <c r="H91" t="n">
-        <v>356128301.9472715</v>
+        <v>425624161.7529355</v>
       </c>
     </row>
     <row r="92">
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4939837.699219046</v>
+        <v>4416169.162226788</v>
       </c>
       <c r="E92" t="n">
-        <v>2469918849.609523</v>
+        <v>2208084581.113394</v>
       </c>
       <c r="F92" t="n">
-        <v>666878089.3945712</v>
+        <v>596182836.9006164</v>
       </c>
       <c r="G92" t="n">
-        <v>4019595334.23153</v>
+        <v>3620463802.576766</v>
       </c>
       <c r="H92" t="n">
-        <v>1085282342.518424</v>
+        <v>977519044.0588994</v>
       </c>
     </row>
     <row r="93">
@@ -3404,19 +3404,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4961360.07271794</v>
+        <v>5287834.386468749</v>
       </c>
       <c r="E93" t="n">
-        <v>1984544029.087176</v>
+        <v>2115133754.587499</v>
       </c>
       <c r="F93" t="n">
-        <v>535826887.8535376</v>
+        <v>571086113.7386248</v>
       </c>
       <c r="G93" t="n">
-        <v>3919722525.450809</v>
+        <v>3788045919.434618</v>
       </c>
       <c r="H93" t="n">
-        <v>1058307717.111464</v>
+        <v>1022772927.030785</v>
       </c>
     </row>
     <row r="94">
@@ -3436,19 +3436,19 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>535699.9950153462</v>
+        <v>535531.9042881123</v>
       </c>
       <c r="E94" t="n">
-        <v>36963299.65605889</v>
+        <v>37487233.30016786</v>
       </c>
       <c r="F94" t="n">
-        <v>21808346.79707475</v>
+        <v>22117467.64709904</v>
       </c>
       <c r="G94" t="n">
-        <v>108270325.9925516</v>
+        <v>108354170.1946138</v>
       </c>
       <c r="H94" t="n">
-        <v>63876867.40562988</v>
+        <v>63926443.41487197</v>
       </c>
     </row>
     <row r="95">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>593295.4384211228</v>
+        <v>593281.1355283152</v>
       </c>
       <c r="E95" t="n">
-        <v>35597726.30526737</v>
+        <v>35596868.13169891</v>
       </c>
       <c r="F95" t="n">
-        <v>21002658.52010775</v>
+        <v>21002152.19770236</v>
       </c>
       <c r="G95" t="n">
-        <v>69480828.7934977</v>
+        <v>69508817.83849742</v>
       </c>
       <c r="H95" t="n">
-        <v>40990781.84051538</v>
+        <v>41007592.08771715</v>
       </c>
     </row>
     <row r="96">
@@ -3564,19 +3564,19 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4183916.006702481</v>
+        <v>4184057.543569024</v>
       </c>
       <c r="E98" t="n">
-        <v>196644052.3150166</v>
+        <v>196650704.5477441</v>
       </c>
       <c r="F98" t="n">
-        <v>206476254.9307674</v>
+        <v>206483239.7751313</v>
       </c>
       <c r="G98" t="n">
-        <v>222584331.556572</v>
+        <v>222591861.3178721</v>
       </c>
       <c r="H98" t="n">
-        <v>233713548.1344006</v>
+        <v>233679613.80833</v>
       </c>
     </row>
     <row r="99">
@@ -3596,19 +3596,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3170050.361575082</v>
+        <v>3170817.019338136</v>
       </c>
       <c r="E99" t="n">
-        <v>142652266.2708787</v>
+        <v>142686765.8702161</v>
       </c>
       <c r="F99" t="n">
-        <v>149784879.5844226</v>
+        <v>149821104.1637269</v>
       </c>
       <c r="G99" t="n">
-        <v>185257743.1304478</v>
+        <v>185239130.2697339</v>
       </c>
       <c r="H99" t="n">
-        <v>194514290.186247</v>
+        <v>194497915.9662013</v>
       </c>
     </row>
     <row r="100">
@@ -3628,19 +3628,19 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>34644495.90294211</v>
+        <v>34636759.08441556</v>
       </c>
       <c r="E100" t="n">
-        <v>1732224795.147106</v>
+        <v>1731837954.220778</v>
       </c>
       <c r="F100" t="n">
-        <v>1732224795.147106</v>
+        <v>1731837954.220778</v>
       </c>
       <c r="G100" t="n">
-        <v>4683589401.118744</v>
+        <v>4683582563.394672</v>
       </c>
       <c r="H100" t="n">
-        <v>4683589401.118744</v>
+        <v>4683582563.394672</v>
       </c>
     </row>
     <row r="101">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>25301674.06464913</v>
+        <v>25303551.86349284</v>
       </c>
       <c r="E101" t="n">
-        <v>1644608814.202193</v>
+        <v>1644730871.127034</v>
       </c>
       <c r="F101" t="n">
-        <v>1644608814.202193</v>
+        <v>1644730871.127034</v>
       </c>
       <c r="G101" t="n">
-        <v>3002802677.992559</v>
+        <v>3002772499.640695</v>
       </c>
       <c r="H101" t="n">
-        <v>3002802677.992559</v>
+        <v>3002772499.640695</v>
       </c>
     </row>
   </sheetData>
